--- a/demog180-syllabus/demog180 - 2024.xlsx
+++ b/demog180-syllabus/demog180 - 2024.xlsx
@@ -412,12 +412,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[Lab 0: Getting started w/ Jupyter notebook / test submitting a lab](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab0%2Flab0-rev.ipynb&amp;branch=main)</t>
+          <t>[Lab 0: Getting started w/ Jupyter notebook / test submitting a lab](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2025%2Flab%2Flab0%2Flab0.ipynb)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[Hwk 1: Collecting personal network survey data](https://docs.google.com/document/d/1Og5dk6vW0IH6k_M5otwkGs_s2hhzuF4AaF3Dpexijrs/edit)</t>
+          <t>Mini Project 01: Personal network data</t>
         </is>
       </c>
     </row>
@@ -450,11 +450,6 @@
  [Triadic closure in an email network](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=lab%2Ftree%2Fdemog180-fa2024%2Flecture%2F20240905_triadic_closure%2Femail-eu-core.ipynb)</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[Hwk 2: Analyzing personal network data](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Fhwk%2Fhwk02%2Fhwk02.ipynb)</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="D5" t="inlineStr">
@@ -479,11 +474,6 @@
           <t>Network centrality / the Friendship Paradox</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>[Hwk 3: Complete network data](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Fhwk%2Fhwk03%2Fhwk03.ipynb)</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="D7" t="inlineStr">
@@ -501,6 +491,11 @@
           <t>[Lab 3: Enriching network data and testing a hypothesis about homophily](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab03%2Flab03_homophily.ipynb)</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>? Mini Project 02: Complete network data</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="D8" t="inlineStr">
@@ -544,7 +539,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[Hwk 4: Problem set I](https://drive.google.com/file/d/1TUta8-8redraG0L044teOdA3SxX2eBtj/view?usp=sharing)</t>
+          <t>? Problem Set 01</t>
         </is>
       </c>
     </row>
@@ -571,11 +566,6 @@
           <t>[netlogo BA model](https://www.netlogoweb.org/launch#https://www.netlogoweb.org/assets/modelslib/Sample%20Models/Networks/Preferential%20Attachment.nlogo)</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>[Hwk 5: Advanced complete network data](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;urlpath=tree%2Fdemog180-fa2024%2Fhwk%2Fhwk05%2Fhwk05_advanced.ipynb&amp;branch=main)</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -632,6 +622,11 @@
           <t>[Lab 6: Community detection](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab06%2Flab06_community_detection.ipynb)</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>? Mini Project 03</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -649,11 +644,6 @@
           <t>[SIR demo](https://shiny.demog.berkeley.edu/dennis/model-SIR/)</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>[Hwk 6: Problem set II](https://drive.google.com/file/d/1M6qVvOdlgYbHOpeJ8-EftRca07u_mAUK/view?usp=sharing)</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="D19" t="inlineStr">
@@ -671,6 +661,11 @@
           <t>[Lab 7: Simple contagion](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab07%2Flab07_simple_contagion.ipynb)</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>? Problem Set 02</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -688,11 +683,6 @@
           <t>[Concurrency demo](https://shiny.demog.berkeley.edu/dennis/concurrency/)</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>[Hwk 7: Centrality and the SIR model](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Fhwk%2Fhwk07%2Fhwk07_centrality.ipynb)</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="D21" t="inlineStr">
@@ -719,7 +709,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[Mini-project](https://docs.google.com/document/d/1xYaU-7K-Vk6mSaya5jgXgS70I0r8aTy27lvYRJyVW9E/edit?tab=t.0)</t>
+          <t>? Mini Project 04</t>
         </is>
       </c>
     </row>
@@ -753,6 +743,11 @@
           <t>Guest lecture - Chris Soria</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>? Problem Set 3</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="D26" t="inlineStr">
@@ -760,11 +755,6 @@
           <t>Complex contagion on networks, cont. + Empirical studies of complex contagion</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>[Hwk 8: Problem set III](https://docs.google.com/document/d/1w8EGUU8kZIzkbsWLt2Cgvl_T4OnY3C5zExzegPMVBB0/edit?usp=sharing)</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="D27" t="inlineStr">
@@ -789,11 +779,6 @@
       <c r="F29" t="inlineStr">
         <is>
           <t>Problem set + mini-project support</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>[Axelrod tournament](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flecture%2F20241203_cooperation%2Fipd_tournament.ipynb)</t>
         </is>
       </c>
     </row>

--- a/demog180-syllabus/demog180 - 2024.xlsx
+++ b/demog180-syllabus/demog180 - 2024.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>? Mini Project 02: Complete network data</t>
+          <t>Mini Project 02: Complete network data</t>
         </is>
       </c>
     </row>
@@ -537,11 +537,6 @@
           <t>Small worlds</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>? Problem Set 01</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="D11" t="inlineStr">
@@ -554,6 +549,11 @@
           <t>[Lab 5 - Two-mode networks](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab05%2Flab05_two_mode_networks.ipynb)</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>? Problem Set 01</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="D12" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>More models: configuration model and stochastic block model</t>
+          <t>Empirical studies of network structure</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -588,7 +588,7 @@
     <row r="14">
       <c r="D14" t="inlineStr">
         <is>
-          <t>Community detection</t>
+          <t>Midterm review</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -600,26 +600,26 @@
     <row r="15">
       <c r="D15" t="inlineStr">
         <is>
-          <t>Midterm review</t>
+          <t>Midterm</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[Lab 6: Community detection](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab06%2Flab06_community_detection.ipynb)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="D16" t="inlineStr">
         <is>
-          <t>Midterm</t>
+          <t>More models: configuration model and stochastic block model</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="D17" t="inlineStr">
         <is>
-          <t>Empirical studies of network structure</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[Lab 6: Community detection](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab06%2Flab06_community_detection.ipynb)</t>
+          <t>Community detection</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">

--- a/demog180-syllabus/demog180 - 2024.xlsx
+++ b/demog180-syllabus/demog180 - 2024.xlsx
@@ -410,6 +410,11 @@
           <t>Intro / what social networks are / basic graph theory / class info</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[Giant component](https://www.netlogoweb.org/launch#https://www.netlogoweb.org/assets/modelslib/Sample%20Models/Networks/Giant%20Component.nlogo)</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>[Lab 0: Getting started w/ Jupyter notebook / test submitting a lab](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2025%2Flab%2Flab0%2Flab0.ipynb)</t>
@@ -740,7 +745,7 @@
     <row r="25">
       <c r="D25" t="inlineStr">
         <is>
-          <t>Guest lecture - Chris Soria</t>
+          <t>Complex contagion on networks, cont. + Empirical studies of complex contagion</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -752,7 +757,7 @@
     <row r="26">
       <c r="D26" t="inlineStr">
         <is>
-          <t>Complex contagion on networks, cont. + Empirical studies of complex contagion</t>
+          <t>TBA - possible guest lecture</t>
         </is>
       </c>
     </row>
@@ -771,6 +776,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>[Cooperation](#sec:cooperation)</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>Cooperation and networks</t>
@@ -785,7 +795,7 @@
     <row r="30">
       <c r="D30" t="inlineStr">
         <is>
-          <t>Empirical studies of complex contagion/cooperation + Wrap up</t>
+          <t>Wrap up</t>
         </is>
       </c>
     </row>
